--- a/data/Subset1_WithDialogActs/Math US4 transcript.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Math US4 transcript.xlsx_with_dialog_acts.xlsx
@@ -975,12 +975,12 @@
       <c r="H13" t="inlineStr"/>
       <c r="I13" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1143,12 +1143,12 @@
       <c r="H17" t="inlineStr"/>
       <c r="I17" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1647,12 +1647,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1689,12 +1689,12 @@
       <c r="H30" t="inlineStr"/>
       <c r="I30" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J30" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2113,12 +2113,12 @@
       </c>
       <c r="I40" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2155,12 +2155,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2197,12 +2197,12 @@
       <c r="H42" t="inlineStr"/>
       <c r="I42" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J42" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2453,12 +2453,12 @@
       </c>
       <c r="I48" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J48" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2495,12 +2495,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3083,12 +3083,12 @@
       <c r="H63" t="inlineStr"/>
       <c r="I63" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J63" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3461,12 +3461,12 @@
       <c r="H72" t="inlineStr"/>
       <c r="I72" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J72" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -3587,12 +3587,12 @@
       <c r="H75" t="inlineStr"/>
       <c r="I75" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J75" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -3629,12 +3629,12 @@
       <c r="H76" t="inlineStr"/>
       <c r="I76" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J76" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3713,12 +3713,12 @@
       <c r="H78" t="inlineStr"/>
       <c r="I78" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J78" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3969,12 +3969,12 @@
       <c r="H84" t="inlineStr"/>
       <c r="I84" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J84" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4431,12 +4431,12 @@
       <c r="H95" t="inlineStr"/>
       <c r="I95" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J95" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -4767,12 +4767,12 @@
       <c r="H103" t="inlineStr"/>
       <c r="I103" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J103" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -5019,12 +5019,12 @@
       <c r="H109" t="inlineStr"/>
       <c r="I109" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J109" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -5187,12 +5187,12 @@
       <c r="H113" t="inlineStr"/>
       <c r="I113" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J113" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5523,12 +5523,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5901,12 +5901,12 @@
       <c r="H130" t="inlineStr"/>
       <c r="I130" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J130" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6021,12 +6021,12 @@
       <c r="H133" t="inlineStr"/>
       <c r="I133" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J133" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6063,12 +6063,12 @@
       <c r="H134" t="inlineStr"/>
       <c r="I134" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J134" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6141,12 +6141,12 @@
       <c r="H136" t="inlineStr"/>
       <c r="I136" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J136" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6267,12 +6267,12 @@
       <c r="H139" t="inlineStr"/>
       <c r="I139" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J139" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6355,12 +6355,12 @@
       </c>
       <c r="I141" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J141" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6569,12 +6569,12 @@
       </c>
       <c r="I146" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J146" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6737,12 +6737,12 @@
       <c r="H150" t="inlineStr"/>
       <c r="I150" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J150" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6993,12 +6993,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7211,12 +7211,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7295,12 +7295,12 @@
       <c r="H163" t="inlineStr"/>
       <c r="I163" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J163" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7593,12 +7593,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -7639,12 +7639,12 @@
       </c>
       <c r="I171" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J171" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7933,12 +7933,12 @@
       <c r="H178" t="inlineStr"/>
       <c r="I178" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J178" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8399,12 +8399,12 @@
       <c r="H189" t="inlineStr"/>
       <c r="I189" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J189" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8525,12 +8525,12 @@
       </c>
       <c r="I192" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9243,12 +9243,12 @@
       </c>
       <c r="I209" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J209" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9331,12 +9331,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9373,12 +9373,12 @@
       <c r="H212" t="inlineStr"/>
       <c r="I212" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J212" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9415,12 +9415,12 @@
       <c r="H213" t="inlineStr"/>
       <c r="I213" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J213" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10095,12 +10095,12 @@
       <c r="H229" t="inlineStr"/>
       <c r="I229" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J229" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10389,12 +10389,12 @@
       </c>
       <c r="I236" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J236" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10515,12 +10515,12 @@
       </c>
       <c r="I239" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10557,12 +10557,12 @@
       <c r="H240" t="inlineStr"/>
       <c r="I240" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11187,12 +11187,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11271,12 +11271,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11439,12 +11439,12 @@
       </c>
       <c r="I261" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11569,12 +11569,12 @@
       </c>
       <c r="I264" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J264" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12031,12 +12031,12 @@
       <c r="H275" t="inlineStr"/>
       <c r="I275" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J275" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12871,12 +12871,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13039,12 +13039,12 @@
       <c r="H299" t="inlineStr"/>
       <c r="I299" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J299" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13383,12 +13383,12 @@
       <c r="H307" t="inlineStr"/>
       <c r="I307" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J307" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13849,12 +13849,12 @@
       <c r="H318" t="inlineStr"/>
       <c r="I318" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J318" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -13891,12 +13891,12 @@
       <c r="H319" t="inlineStr"/>
       <c r="I319" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J319" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -14147,12 +14147,12 @@
       </c>
       <c r="I325" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J325" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14189,12 +14189,12 @@
       <c r="H326" t="inlineStr"/>
       <c r="I326" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J326" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14701,12 +14701,12 @@
       <c r="H338" t="inlineStr"/>
       <c r="I338" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J338" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14873,12 +14873,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15287,12 +15287,12 @@
       <c r="H352" t="inlineStr"/>
       <c r="I352" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J352" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -15453,12 +15453,12 @@
       <c r="H356" t="inlineStr"/>
       <c r="I356" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J356" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15495,12 +15495,12 @@
       <c r="H357" t="inlineStr"/>
       <c r="I357" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J357" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -15537,12 +15537,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15915,12 +15915,12 @@
       </c>
       <c r="I367" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -16503,12 +16503,12 @@
       </c>
       <c r="I381" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J381" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -17011,12 +17011,12 @@
       </c>
       <c r="I393" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J393" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17095,12 +17095,12 @@
       </c>
       <c r="I395" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J395" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -17935,12 +17935,12 @@
       <c r="H415" t="inlineStr"/>
       <c r="I415" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J415" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -19115,12 +19115,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19329,12 +19329,12 @@
       <c r="H448" t="inlineStr"/>
       <c r="I448" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J448" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -19665,12 +19665,12 @@
       <c r="H456" t="inlineStr"/>
       <c r="I456" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J456" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19707,12 +19707,12 @@
       </c>
       <c r="I457" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J457" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19917,12 +19917,12 @@
       <c r="H462" t="inlineStr"/>
       <c r="I462" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J462" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -20043,12 +20043,12 @@
       </c>
       <c r="I465" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J465" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20085,12 +20085,12 @@
       <c r="H466" t="inlineStr"/>
       <c r="I466" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J466" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20303,12 +20303,12 @@
       </c>
       <c r="I471" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J471" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20345,12 +20345,12 @@
       <c r="H472" t="inlineStr"/>
       <c r="I472" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J472" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -20643,12 +20643,12 @@
       </c>
       <c r="I479" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20685,12 +20685,12 @@
       <c r="H480" t="inlineStr"/>
       <c r="I480" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J480" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20931,12 +20931,12 @@
       <c r="H486" t="inlineStr"/>
       <c r="I486" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J486" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21141,12 +21141,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21481,12 +21481,12 @@
       </c>
       <c r="I499" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J499" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -21901,12 +21901,12 @@
       <c r="H509" t="inlineStr"/>
       <c r="I509" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J509" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22069,12 +22069,12 @@
       <c r="H513" t="inlineStr"/>
       <c r="I513" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J513" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22153,12 +22153,12 @@
       <c r="H515" t="inlineStr"/>
       <c r="I515" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22363,12 +22363,12 @@
       <c r="H520" t="inlineStr"/>
       <c r="I520" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J520" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22657,12 +22657,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23291,12 +23291,12 @@
       <c r="H542" t="inlineStr"/>
       <c r="I542" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J542" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23417,12 +23417,12 @@
       </c>
       <c r="I545" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23711,12 +23711,12 @@
       <c r="H552" t="inlineStr"/>
       <c r="I552" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J552" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24005,12 +24005,12 @@
       <c r="H559" t="inlineStr"/>
       <c r="I559" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J559" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24089,12 +24089,12 @@
       <c r="H561" t="inlineStr"/>
       <c r="I561" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J561" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -24383,12 +24383,12 @@
       </c>
       <c r="I568" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J568" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -24593,12 +24593,12 @@
       <c r="H573" t="inlineStr"/>
       <c r="I573" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J573" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24635,12 +24635,12 @@
       <c r="H574" t="inlineStr"/>
       <c r="I574" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -24845,12 +24845,12 @@
       <c r="H579" t="inlineStr"/>
       <c r="I579" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J579" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25349,12 +25349,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -25391,12 +25391,12 @@
       <c r="H592" t="inlineStr"/>
       <c r="I592" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J592" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -26487,12 +26487,12 @@
       <c r="H618" t="inlineStr"/>
       <c r="I618" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J618" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26697,12 +26697,12 @@
       <c r="H623" t="inlineStr"/>
       <c r="I623" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J623" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27075,12 +27075,12 @@
       <c r="H632" t="inlineStr"/>
       <c r="I632" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J632" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27667,12 +27667,12 @@
       <c r="H646" t="inlineStr"/>
       <c r="I646" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J646" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27709,12 +27709,12 @@
       <c r="H647" t="inlineStr"/>
       <c r="I647" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J647" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -27751,12 +27751,12 @@
       <c r="H648" t="inlineStr"/>
       <c r="I648" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J648" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -28263,12 +28263,12 @@
       </c>
       <c r="I660" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J660" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -28305,12 +28305,12 @@
       <c r="H661" t="inlineStr"/>
       <c r="I661" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J661" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28431,12 +28431,12 @@
       <c r="H664" t="inlineStr"/>
       <c r="I664" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J664" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -28809,12 +28809,12 @@
       <c r="H673" t="inlineStr"/>
       <c r="I673" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J673" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -29275,12 +29275,12 @@
       <c r="H684" t="inlineStr"/>
       <c r="I684" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J684" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29317,12 +29317,12 @@
       <c r="H685" t="inlineStr"/>
       <c r="I685" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J685" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -29569,12 +29569,12 @@
       <c r="H691" t="inlineStr"/>
       <c r="I691" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J691" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -30115,12 +30115,12 @@
       </c>
       <c r="I704" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J704" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -31081,12 +31081,12 @@
       <c r="H727" t="inlineStr"/>
       <c r="I727" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J727" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -31165,12 +31165,12 @@
       <c r="H729" t="inlineStr"/>
       <c r="I729" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J729" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -31715,12 +31715,12 @@
       <c r="H742" t="inlineStr"/>
       <c r="I742" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J742" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -31883,12 +31883,12 @@
       <c r="H746" t="inlineStr"/>
       <c r="I746" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J746" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33793,12 +33793,12 @@
       <c r="H791" t="inlineStr"/>
       <c r="I791" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J791" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -33909,12 +33909,12 @@
       <c r="H794" t="inlineStr"/>
       <c r="I794" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J794" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -34547,12 +34547,12 @@
       <c r="H809" t="inlineStr"/>
       <c r="I809" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J809" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -34589,12 +34589,12 @@
       <c r="H810" t="inlineStr"/>
       <c r="I810" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J810" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34631,12 +34631,12 @@
       </c>
       <c r="I811" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J811" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34673,12 +34673,12 @@
       <c r="H812" t="inlineStr"/>
       <c r="I812" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J812" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -34757,12 +34757,12 @@
       <c r="H814" t="inlineStr"/>
       <c r="I814" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J814" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
